--- a/output/images.xlsx
+++ b/output/images.xlsx
@@ -155,17 +155,67 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -186,36 +236,11 @@
     <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>6</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -236,31 +261,6 @@
     <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
@@ -280,7 +280,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>12</row>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -305,17 +305,42 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -336,31 +361,6 @@
     <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
@@ -380,17 +380,42 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -411,11 +436,11 @@
     <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -436,11 +461,11 @@
     <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -461,31 +486,6 @@
     <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
@@ -505,7 +505,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>26</row>
+      <row>30</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -530,7 +530,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -555,7 +555,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>28</row>
+      <row>32</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -580,7 +580,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>29</row>
+      <row>35</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -605,7 +605,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -630,7 +630,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>34</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -655,7 +655,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>35</row>
+      <row>38</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -680,7 +680,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>36</row>
+      <row>39</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -705,7 +705,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -730,7 +730,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>38</row>
+      <row>46</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -755,7 +755,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>39</row>
+      <row>47</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -780,7 +780,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -805,7 +805,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>41</row>
+      <row>51</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -830,7 +830,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>42</row>
+      <row>52</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -855,7 +855,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>43</row>
+      <row>53</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -880,7 +880,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>44</row>
+      <row>58</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -905,7 +905,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>46</row>
+      <row>59</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -930,7 +930,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>47</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -955,7 +955,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>48</row>
+      <row>61</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -980,7 +980,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>49</row>
+      <row>62</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1005,7 +1005,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>50</row>
+      <row>63</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1030,7 +1030,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>51</row>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1055,7 +1055,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>52</row>
+      <row>65</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1080,7 +1080,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>53</row>
+      <row>66</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1105,7 +1105,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>54</row>
+      <row>67</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1130,7 +1130,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>55</row>
+      <row>73</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1155,7 +1155,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>74</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1180,7 +1180,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>62</row>
+      <row>76</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1205,7 +1205,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>63</row>
+      <row>77</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1230,7 +1230,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>65</row>
+      <row>78</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1255,7 +1255,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>66</row>
+      <row>82</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1280,7 +1280,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>68</row>
+      <row>83</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1305,7 +1305,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>71</row>
+      <row>84</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1330,7 +1330,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>72</row>
+      <row>89</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1355,7 +1355,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>73</row>
+      <row>90</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1380,7 +1380,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>74</row>
+      <row>91</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1405,7 +1405,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>78</row>
+      <row>92</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1430,7 +1430,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>79</row>
+      <row>93</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1455,7 +1455,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>80</row>
+      <row>94</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1480,7 +1480,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>85</row>
+      <row>95</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1505,7 +1505,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>86</row>
+      <row>96</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1530,7 +1530,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>87</row>
+      <row>97</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1555,7 +1555,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>88</row>
+      <row>102</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1580,7 +1580,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>89</row>
+      <row>103</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1605,7 +1605,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>90</row>
+      <row>104</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1630,7 +1630,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>91</row>
+      <row>110</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1655,7 +1655,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>93</row>
+      <row>111</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1680,7 +1680,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>94</row>
+      <row>112</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1705,7 +1705,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>95</row>
+      <row>115</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1730,7 +1730,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>96</row>
+      <row>116</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1755,7 +1755,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>97</row>
+      <row>117</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1780,7 +1780,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>98</row>
+      <row>118</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1805,7 +1805,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>99</row>
+      <row>120</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1830,7 +1830,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>100</row>
+      <row>121</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1855,7 +1855,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>101</row>
+      <row>122</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1880,7 +1880,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>102</row>
+      <row>123</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1905,7 +1905,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>103</row>
+      <row>126</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1930,7 +1930,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>104</row>
+      <row>127</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1955,7 +1955,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>105</row>
+      <row>128</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -1980,7 +1980,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>107</row>
+      <row>129</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2005,7 +2005,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>108</row>
+      <row>130</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2030,7 +2030,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>109</row>
+      <row>131</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2055,7 +2055,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>111</row>
+      <row>132</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2080,7 +2080,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>112</row>
+      <row>133</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2105,7 +2105,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>115</row>
+      <row>134</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2130,7 +2130,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>116</row>
+      <row>137</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2155,7 +2155,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>117</row>
+      <row>138</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2180,7 +2180,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>118</row>
+      <row>139</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2205,7 +2205,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>121</row>
+      <row>140</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2230,7 +2230,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>122</row>
+      <row>141</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2255,7 +2255,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>123</row>
+      <row>142</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2280,7 +2280,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>124</row>
+      <row>143</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2305,7 +2305,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>128</row>
+      <row>144</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2330,7 +2330,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>129</row>
+      <row>145</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2355,7 +2355,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>130</row>
+      <row>146</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2380,7 +2380,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>131</row>
+      <row>149</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2405,7 +2405,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>133</row>
+      <row>150</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2430,7 +2430,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>134</row>
+      <row>154</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2455,7 +2455,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>135</row>
+      <row>155</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2480,7 +2480,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>136</row>
+      <row>156</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2505,7 +2505,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>138</row>
+      <row>157</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2530,7 +2530,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>143</row>
+      <row>158</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2555,7 +2555,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>144</row>
+      <row>161</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2580,7 +2580,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>145</row>
+      <row>162</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2605,7 +2605,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>146</row>
+      <row>163</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2630,7 +2630,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>147</row>
+      <row>164</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2655,7 +2655,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>148</row>
+      <row>165</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2680,7 +2680,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>149</row>
+      <row>166</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2705,7 +2705,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>150</row>
+      <row>167</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2730,7 +2730,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>151</row>
+      <row>168</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2755,7 +2755,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>152</row>
+      <row>169</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2780,7 +2780,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>153</row>
+      <row>171</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2805,7 +2805,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>154</row>
+      <row>172</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2830,7 +2830,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>155</row>
+      <row>173</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2855,7 +2855,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>157</row>
+      <row>174</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2880,7 +2880,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>158</row>
+      <row>175</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2905,7 +2905,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>159</row>
+      <row>176</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2930,7 +2930,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>160</row>
+      <row>177</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2955,7 +2955,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>161</row>
+      <row>178</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2980,7 +2980,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>168</row>
+      <row>182</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3005,7 +3005,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>169</row>
+      <row>183</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3030,7 +3030,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>170</row>
+      <row>184</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3055,7 +3055,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>171</row>
+      <row>187</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3080,7 +3080,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>172</row>
+      <row>188</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3105,7 +3105,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>173</row>
+      <row>189</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3130,7 +3130,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>174</row>
+      <row>192</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3155,7 +3155,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>175</row>
+      <row>193</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3180,7 +3180,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>176</row>
+      <row>194</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3205,7 +3205,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>177</row>
+      <row>195</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3230,7 +3230,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>178</row>
+      <row>196</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3255,7 +3255,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>179</row>
+      <row>197</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3280,7 +3280,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>180</row>
+      <row>198</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3305,7 +3305,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>181</row>
+      <row>200</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3330,7 +3330,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>182</row>
+      <row>201</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3355,7 +3355,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>183</row>
+      <row>202</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3380,7 +3380,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>184</row>
+      <row>203</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3405,7 +3405,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>185</row>
+      <row>204</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3430,7 +3430,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>192</row>
+      <row>207</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3455,7 +3455,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>193</row>
+      <row>208</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3480,7 +3480,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>194</row>
+      <row>209</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3505,7 +3505,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>195</row>
+      <row>213</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3530,7 +3530,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>197</row>
+      <row>214</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3555,7 +3555,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>198</row>
+      <row>215</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3580,7 +3580,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>199</row>
+      <row>218</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3605,7 +3605,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>200</row>
+      <row>219</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3630,7 +3630,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>201</row>
+      <row>220</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3655,7 +3655,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>202</row>
+      <row>221</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3680,7 +3680,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>203</row>
+      <row>222</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3705,7 +3705,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>204</row>
+      <row>223</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3730,7 +3730,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>205</row>
+      <row>224</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3755,7 +3755,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>206</row>
+      <row>225</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3780,7 +3780,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>207</row>
+      <row>226</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3805,7 +3805,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>209</row>
+      <row>227</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3830,7 +3830,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>210</row>
+      <row>238</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3855,7 +3855,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>211</row>
+      <row>239</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3880,7 +3880,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>215</row>
+      <row>240</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3905,7 +3905,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>216</row>
+      <row>241</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3930,7 +3930,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>217</row>
+      <row>242</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3955,7 +3955,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>220</row>
+      <row>243</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3980,7 +3980,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>221</row>
+      <row>245</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4005,7 +4005,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>222</row>
+      <row>246</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4030,7 +4030,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>223</row>
+      <row>247</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4055,7 +4055,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>224</row>
+      <row>248</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4080,7 +4080,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>225</row>
+      <row>249</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4105,7 +4105,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>227</row>
+      <row>251</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4130,7 +4130,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>228</row>
+      <row>252</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4155,7 +4155,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>229</row>
+      <row>253</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4180,7 +4180,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>230</row>
+      <row>254</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4205,7 +4205,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>232</row>
+      <row>255</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4230,7 +4230,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>233</row>
+      <row>256</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4255,7 +4255,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>234</row>
+      <row>257</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4280,7 +4280,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>237</row>
+      <row>258</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4305,7 +4305,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>238</row>
+      <row>259</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4330,7 +4330,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>239</row>
+      <row>260</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4355,7 +4355,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>240</row>
+      <row>261</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4380,7 +4380,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>250</row>
+      <row>262</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4405,7 +4405,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>256</row>
+      <row>265</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4430,7 +4430,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>257</row>
+      <row>266</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4455,7 +4455,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>259</row>
+      <row>267</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4480,7 +4480,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>260</row>
+      <row>268</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4505,7 +4505,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>261</row>
+      <row>269</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4530,7 +4530,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>262</row>
+      <row>271</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4555,7 +4555,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>263</row>
+      <row>272</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4580,7 +4580,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>268</row>
+      <row>273</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4605,7 +4605,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>269</row>
+      <row>274</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4630,7 +4630,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>270</row>
+      <row>275</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4655,7 +4655,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>271</row>
+      <row>279</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4680,7 +4680,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>273</row>
+      <row>280</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4705,7 +4705,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>274</row>
+      <row>281</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4730,7 +4730,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>275</row>
+      <row>282</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4755,7 +4755,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>279</row>
+      <row>285</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4780,7 +4780,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>280</row>
+      <row>287</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4805,7 +4805,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>281</row>
+      <row>288</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4830,7 +4830,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>282</row>
+      <row>289</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4855,7 +4855,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>283</row>
+      <row>290</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4880,7 +4880,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>284</row>
+      <row>291</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4905,7 +4905,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>285</row>
+      <row>292</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4930,7 +4930,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>286</row>
+      <row>293</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4955,7 +4955,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>287</row>
+      <row>294</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -4980,7 +4980,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>288</row>
+      <row>295</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5005,7 +5005,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>289</row>
+      <row>296</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5030,7 +5030,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>290</row>
+      <row>297</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5055,7 +5055,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>291</row>
+      <row>298</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5080,7 +5080,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>293</row>
+      <row>299</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5105,7 +5105,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>294</row>
+      <row>301</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5130,7 +5130,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>295</row>
+      <row>302</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5155,7 +5155,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>298</row>
+      <row>303</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5180,7 +5180,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>299</row>
+      <row>304</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5205,7 +5205,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>300</row>
+      <row>305</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5230,7 +5230,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>305</row>
+      <row>306</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5255,7 +5255,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>306</row>
+      <row>307</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5280,7 +5280,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>307</row>
+      <row>308</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5305,7 +5305,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>308</row>
+      <row>309</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5405,7 +5405,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>318</row>
+      <row>322</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5430,7 +5430,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>320</row>
+      <row>323</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5455,7 +5455,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>321</row>
+      <row>326</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5480,7 +5480,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>322</row>
+      <row>327</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5505,7 +5505,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>323</row>
+      <row>328</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5530,7 +5530,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>324</row>
+      <row>333</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5555,7 +5555,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>325</row>
+      <row>334</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5580,7 +5580,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>326</row>
+      <row>335</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5605,7 +5605,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>327</row>
+      <row>336</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5630,7 +5630,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>328</row>
+      <row>338</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5655,7 +5655,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>329</row>
+      <row>339</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5680,7 +5680,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>330</row>
+      <row>340</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5705,7 +5705,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>331</row>
+      <row>344</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5730,7 +5730,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>332</row>
+      <row>345</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5755,7 +5755,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>333</row>
+      <row>346</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5780,7 +5780,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>334</row>
+      <row>347</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5805,7 +5805,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>335</row>
+      <row>348</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5830,7 +5830,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>336</row>
+      <row>359</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5855,7 +5855,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>337</row>
+      <row>360</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5880,7 +5880,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>338</row>
+      <row>361</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5905,7 +5905,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>339</row>
+      <row>366</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5930,7 +5930,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>342</row>
+      <row>367</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5955,7 +5955,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>343</row>
+      <row>368</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -5980,7 +5980,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>344</row>
+      <row>369</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6005,7 +6005,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>345</row>
+      <row>370</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6030,7 +6030,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>346</row>
+      <row>371</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6055,7 +6055,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>347</row>
+      <row>373</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6080,7 +6080,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>350</row>
+      <row>374</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6105,7 +6105,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>357</row>
+      <row>379</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6130,7 +6130,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>358</row>
+      <row>380</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6155,7 +6155,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>363</row>
+      <row>381</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6180,7 +6180,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>371</row>
+      <row>382</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6205,7 +6205,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>372</row>
+      <row>383</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6230,7 +6230,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>373</row>
+      <row>384</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6241,556 +6241,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId245"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>374</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="246" name="Image 246" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId246"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>375</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="247" name="Image 247" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId247"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>376</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="248" name="Image 248" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId248"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>377</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="249" name="Image 249" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId249"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>379</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="250" name="Image 250" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId250"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>380</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="251" name="Image 251" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId251"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>387</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="252" name="Image 252" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId252"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>388</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="253" name="Image 253" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId253"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>389</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="254" name="Image 254" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId254"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>390</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="255" name="Image 255" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId255"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>391</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="256" name="Image 256" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId256"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>395</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="257" name="Image 257" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId257"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>396</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="258" name="Image 258" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId258"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>397</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="259" name="Image 259" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId259"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>398</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="260" name="Image 260" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId260"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>399</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="261" name="Image 261" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId261"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>403</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="262" name="Image 262" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId262"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>404</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="263" name="Image 263" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId263"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>405</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="264" name="Image 264" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId264"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>406</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="265" name="Image 265" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId265"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>407</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="266" name="Image 266" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId266"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>410</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="267" name="Image 267" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId267"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7093,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C411"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7121,103 +6571,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>77950</t>
+          <t>38601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>output/images/77950.png</t>
+          <t>output/images/38601.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>79348</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>83317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>output/images/83317.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>80360</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>90734</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>output/images/90734.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>93818</t>
+          <t>90735</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>output/images/93818.png</t>
+          <t>output/images/90735.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>96525</t>
+          <t>91354</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>output/images/96525.png</t>
+          <t>output/images/91354.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>99569</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>output/images/99569.png</t>
+          <t>91686</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>100395</t>
+          <t>91944</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>output/images/100395.png</t>
+          <t>output/images/91944.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>107276</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>102223</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>output/images/102223.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>107376</t>
+          <t>103946</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7229,7 +6679,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>108457</t>
+          <t>108042</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7241,79 +6691,79 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>115445</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>output/images/115445.png</t>
+          <t>108432</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>115886</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>output/images/115886.png</t>
+          <t>111403</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>116626</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>111442</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>output/images/111442.png</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>116797</t>
+          <t>111827</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>output/images/116797.png</t>
+          <t>output/images/111827.png</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>116800</t>
+          <t>112108</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>output/images/116800.png</t>
+          <t>output/images/112108.png</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>119215</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>output/images/119215.png</t>
+          <t>113189</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>119348</t>
+          <t>113466</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7325,67 +6775,67 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>119734</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>114020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>output/images/114020.png</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>119735</t>
+          <t>115224</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>output/images/119735.png</t>
+          <t>output/images/115224.png</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>119923</t>
+          <t>116441</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>output/images/119923.png</t>
+          <t>output/images/116441.png</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>120055</t>
+          <t>117782</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>output/images/120055.png</t>
+          <t>output/images/117782.png</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>120735</t>
+          <t>118710</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>output/images/120735.png</t>
+          <t>output/images/118710.png</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>121141</t>
+          <t>118851</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7397,19 +6847,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>121408</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>output/images/121408.png</t>
+          <t>118984</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>121609</t>
+          <t>118985</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -7421,235 +6871,235 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>121610</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>output/images/121610.png</t>
+          <t>118988</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>122212</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>output/images/122212.png</t>
+          <t>118989</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>122225</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>output/images/122225.png</t>
+          <t>118990</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>122579</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>output/images/122579.png</t>
+          <t>118991</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>122650</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>119132</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>output/images/119132.png</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>122933</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>119450</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>output/images/119450.png</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>122934</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>120066</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>output/images/120066.png</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>122940</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>output/images/122940.png</t>
+          <t>120807</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>122943</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>output/images/122943.png</t>
+          <t>120939</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>123003</t>
+          <t>120940</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>output/images/123003.png</t>
+          <t>output/images/120940.png</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>123004</t>
+          <t>121516</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>output/images/123004.png</t>
+          <t>output/images/121516.png</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>123020</t>
+          <t>121771</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>output/images/123020.png</t>
+          <t>output/images/121771.png</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>123072</t>
+          <t>122617</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>output/images/123072.png</t>
+          <t>output/images/122617.png</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>123112</t>
+          <t>123504</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>output/images/123112.png</t>
+          <t>output/images/123504.png</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>123334</t>
+          <t>123716</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>output/images/123334.png</t>
+          <t>output/images/123716.png</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>123401</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>output/images/123401.png</t>
+          <t>123717</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>123669</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>output/images/123669.png</t>
+          <t>123832</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>123900</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>output/images/123900.png</t>
+          <t>123951</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>123947</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>output/images/123947.png</t>
+          <t>124044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>123952</t>
+          <t>124131</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -7661,127 +7111,127 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>123979</t>
+          <t>124382</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>output/images/123979.png</t>
+          <t>output/images/124382.png</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>123980</t>
+          <t>124441</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>output/images/123980.png</t>
+          <t>output/images/124441.png</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>124137</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>output/images/124137.png</t>
+          <t>124491</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>124234</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>output/images/124234.png</t>
+          <t>124492</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>124269</t>
+          <t>124512</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>output/images/124269.png</t>
+          <t>output/images/124512.png</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>124270</t>
+          <t>124543</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>output/images/124270.png</t>
+          <t>output/images/124543.png</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>124386</t>
+          <t>124767</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>output/images/124386.png</t>
+          <t>output/images/124767.png</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>125016</t>
+          <t>125135</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>output/images/125016.png</t>
+          <t>output/images/125135.png</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>125073</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>output/images/125073.png</t>
+          <t>125155</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>125230</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>output/images/125230.png</t>
+          <t>125323</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>125423</t>
+          <t>125324</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -7793,7 +7243,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>125508</t>
+          <t>125953</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -7805,139 +7255,139 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>125609</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>126098</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>output/images/126098.png</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>125610</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>126326</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>output/images/126326.png</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>125612</t>
+          <t>126414</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>output/images/125612.png</t>
+          <t>output/images/126414.png</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>125785</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>126480</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>output/images/126480.png</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>125815</t>
+          <t>126552</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>output/images/125815.png</t>
+          <t>output/images/126552.png</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>125906</t>
+          <t>126629</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>output/images/125906.png</t>
+          <t>output/images/126629.png</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>126024</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>126687</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>output/images/126687.png</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>126189</t>
+          <t>126898</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>output/images/126189.png</t>
+          <t>output/images/126898.png</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>126251</t>
+          <t>126899</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>output/images/126251.png</t>
+          <t>output/images/126899.png</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>126363</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>126900</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>output/images/126900.png</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>126423</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>output/images/126423.png</t>
+          <t>126929</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>126512</t>
+          <t>126978</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7949,7 +7399,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>126609</t>
+          <t>126979</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7961,55 +7411,55 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>126650</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>output/images/126650.png</t>
+          <t>127119</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>126683</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>output/images/126683.png</t>
+          <t>127149</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>126770</t>
+          <t>127180</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>output/images/126770.png</t>
+          <t>output/images/127180.png</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>126870</t>
+          <t>127197</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>output/images/126870.png</t>
+          <t>output/images/127197.png</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>126877</t>
+          <t>127350</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -8021,67 +7471,67 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>127026</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>127367</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>output/images/127367.png</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>127076</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>127369</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>output/images/127369.png</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>127089</t>
+          <t>127370</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>output/images/127089.png</t>
+          <t>output/images/127370.png</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>127153</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>output/images/127153.png</t>
+          <t>127371</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>127154</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>output/images/127154.png</t>
+          <t>127390</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>127155</t>
+          <t>127424</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8093,295 +7543,295 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>127156</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>127431</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>output/images/127431.png</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>127231</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>127435</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>output/images/127435.png</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>127246</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>127460</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>output/images/127460.png</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>127247</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>output/images/127247.png</t>
+          <t>127493</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>127248</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>output/images/127248.png</t>
+          <t>127530</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>127257</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>output/images/127257.png</t>
+          <t>127663</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>127277</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>output/images/127277.png</t>
+          <t>127702</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>127296</t>
+          <t>127734</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>output/images/127296.png</t>
+          <t>output/images/127734.png</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>127303</t>
+          <t>127735</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>output/images/127303.png</t>
+          <t>output/images/127735.png</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>127308</t>
+          <t>127757</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>output/images/127308.png</t>
+          <t>output/images/127757.png</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>127319</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>127758</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>output/images/127758.png</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>127401</t>
+          <t>127759</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>output/images/127401.png</t>
+          <t>output/images/127759.png</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>127436</t>
+          <t>127779</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>output/images/127436.png</t>
+          <t>output/images/127779.png</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>127450</t>
+          <t>127780</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>output/images/127450.png</t>
+          <t>output/images/127780.png</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>127473</t>
+          <t>127781</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>output/images/127473.png</t>
+          <t>output/images/127781.png</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>127474</t>
+          <t>127845</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>output/images/127474.png</t>
+          <t>output/images/127845.png</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>127479</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>output/images/127479.png</t>
+          <t>127926</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>127510</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>output/images/127510.png</t>
+          <t>127942</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>127623</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>output/images/127623.png</t>
+          <t>127943</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>127689</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>output/images/127689.png</t>
+          <t>127946</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>127690</t>
+          <t>127956</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>output/images/127690.png</t>
+          <t>output/images/127956.png</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>127742</t>
+          <t>128132</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>output/images/127742.png</t>
+          <t>output/images/128132.png</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>127760</t>
+          <t>128133</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>output/images/127760.png</t>
+          <t>output/images/128133.png</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>127763</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>output/images/127763.png</t>
+          <t>128138</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>127785</t>
+          <t>128194</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8393,79 +7843,79 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>127811</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>output/images/127811.png</t>
+          <t>128211</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>127835</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>output/images/127835.png</t>
+          <t>128212</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>127873</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>output/images/127873.png</t>
+          <t>128496</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>127890</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>128522</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>output/images/128522.png</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>127891</t>
+          <t>128523</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>output/images/127891.png</t>
+          <t>output/images/128523.png</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>127914</t>
+          <t>128524</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>output/images/127914.png</t>
+          <t>output/images/128524.png</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>128005</t>
+          <t>128531</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8477,7 +7927,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>128104</t>
+          <t>128611</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8489,55 +7939,55 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>128105</t>
+          <t>128612</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>output/images/128105.png</t>
+          <t>output/images/128612.png</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>128143</t>
+          <t>128630</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>output/images/128143.png</t>
+          <t>output/images/128630.png</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>128161</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>output/images/128161.png</t>
+          <t>output/images/128636.png</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>128192</t>
+          <t>128640</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>output/images/128192.png</t>
+          <t>output/images/128640.png</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>128202</t>
+          <t>128707</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8549,67 +7999,67 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>128213</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>128793</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>output/images/128793.png</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>128215</t>
+          <t>128795</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>output/images/128215.png</t>
+          <t>output/images/128795.png</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>128216</t>
+          <t>128819</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>output/images/128216.png</t>
+          <t>output/images/128819.png</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>128264</t>
+          <t>128831</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>output/images/128264.png</t>
+          <t>output/images/128831.png</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>128305</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>output/images/128305.png</t>
+          <t>128860</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>128361</t>
+          <t>128972</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -8621,727 +8071,727 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>128362</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129033</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>output/images/129033.png</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>128428</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129049</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>output/images/129049.png</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>128440</t>
+          <t>129050</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>output/images/128440.png</t>
+          <t>output/images/129050.png</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>128442</t>
+          <t>129077</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>output/images/128442.png</t>
+          <t>output/images/129077.png</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>128477</t>
+          <t>129078</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>output/images/128477.png</t>
+          <t>output/images/129078.png</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>128479</t>
+          <t>129131</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>output/images/128479.png</t>
+          <t>output/images/129131.png</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>128492</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129143</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>output/images/129143.png</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>128493</t>
+          <t>129148</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>output/images/128493.png</t>
+          <t>output/images/129148.png</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>128499</t>
+          <t>129149</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>output/images/128499.png</t>
+          <t>output/images/129149.png</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>128503</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>output/images/128503.png</t>
+          <t>129150</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>128511</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>output/images/128511.png</t>
+          <t>129194</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>128535</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129201</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>output/images/129201.png</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>128546</t>
+          <t>129217</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>output/images/128546.png</t>
+          <t>output/images/129217.png</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>128547</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129242</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>output/images/129242.png</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>128548</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129286</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>output/images/129286.png</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>128549</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129317</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>output/images/129317.png</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>128580</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129359</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>output/images/129359.png</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>128583</t>
+          <t>129385</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>output/images/128583.png</t>
+          <t>output/images/129385.png</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>128586</t>
+          <t>129386</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>output/images/128586.png</t>
+          <t>output/images/129386.png</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>128600</t>
+          <t>129393</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>output/images/128600.png</t>
+          <t>output/images/129393.png</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>128602</t>
+          <t>129400</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>output/images/128602.png</t>
+          <t>output/images/129400.png</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>128619</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>output/images/128619.png</t>
+          <t>129433</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>128620</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>output/images/128620.png</t>
+          <t>129434</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>128621</t>
+          <t>129435</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>output/images/128621.png</t>
+          <t>output/images/129435.png</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>128622</t>
+          <t>129502</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>output/images/128622.png</t>
+          <t>output/images/129502.png</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>128623</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>output/images/128623.png</t>
+          <t>129504</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>128624</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>output/images/128624.png</t>
+          <t>129524</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>128625</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>output/images/128625.png</t>
+          <t>129528</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>128634</t>
+          <t>129540</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>output/images/128634.png</t>
+          <t>output/images/129540.png</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>128676</t>
+          <t>129549</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>output/images/128676.png</t>
+          <t>output/images/129549.png</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>128685</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129553</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>output/images/129553.png</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>128693</t>
+          <t>129631</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>output/images/128693.png</t>
+          <t>output/images/129631.png</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>128694</t>
+          <t>129632</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>output/images/128694.png</t>
+          <t>output/images/129632.png</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>128695</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>output/images/128695.png</t>
+          <t>129644</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>128703</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>output/images/128703.png</t>
+          <t>129660</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>128724</t>
+          <t>129708</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>output/images/128724.png</t>
+          <t>output/images/129708.png</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>128734</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129709</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>output/images/129709.png</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>128736</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129717</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>output/images/129717.png</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>128737</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129722</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>output/images/129722.png</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>128738</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129735</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>output/images/129735.png</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>128739</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129736</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>output/images/129736.png</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>128740</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129740</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>output/images/129740.png</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>128758</t>
+          <t>129746</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>output/images/128758.png</t>
+          <t>output/images/129746.png</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>128760</t>
+          <t>129756</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>output/images/128760.png</t>
+          <t>output/images/129756.png</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>128765</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>output/images/128765.png</t>
+          <t>129772</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>128796</t>
+          <t>129810</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>output/images/128796.png</t>
+          <t>output/images/129810.png</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>128824</t>
+          <t>129847</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>output/images/128824.png</t>
+          <t>output/images/129847.png</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>128836</t>
+          <t>129854</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>output/images/128836.png</t>
+          <t>output/images/129854.png</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>128837</t>
+          <t>129858</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>output/images/128837.png</t>
+          <t>output/images/129858.png</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>128838</t>
+          <t>129882</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>output/images/128838.png</t>
+          <t>output/images/129882.png</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>128842</t>
+          <t>129913</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>output/images/128842.png</t>
+          <t>output/images/129913.png</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>128858</t>
+          <t>129916</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>output/images/128858.png</t>
+          <t>output/images/129916.png</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>128861</t>
+          <t>129917</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>output/images/128861.png</t>
+          <t>output/images/129917.png</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>128883</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>output/images/128883.png</t>
+          <t>129933</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>128948</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>output/images/128948.png</t>
+          <t>129942</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>128949</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>output/images/128949.png</t>
+          <t>129943</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>128953</t>
+          <t>129953</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>output/images/128953.png</t>
+          <t>output/images/129953.png</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>128955</t>
+          <t>129954</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>output/images/128955.png</t>
+          <t>output/images/129954.png</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>128964</t>
+          <t>129958</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>output/images/128964.png</t>
+          <t>output/images/129958.png</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>128973</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>output/images/128973.png</t>
+          <t>129959</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>128981</t>
+          <t>129960</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9353,43 +8803,43 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>128982</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129962</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>output/images/129962.png</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>128983</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129970</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>output/images/129970.png</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>129006</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>129972</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>output/images/129972.png</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>129007</t>
+          <t>129973</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9401,7 +8851,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>129008</t>
+          <t>129974</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9413,247 +8863,247 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>129028</t>
+          <t>129975</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>output/images/129028.png</t>
+          <t>output/images/129975.png</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>129038</t>
+          <t>129988</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>output/images/129038.png</t>
+          <t>output/images/129988.png</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>129040</t>
+          <t>129989</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>output/images/129040.png</t>
+          <t>output/images/129989.png</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>129052</t>
+          <t>130002</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>output/images/129052.png</t>
+          <t>output/images/130002.png</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>129062</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130010</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>output/images/130010.png</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>129071</t>
+          <t>130021</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>output/images/129071.png</t>
+          <t>output/images/130021.png</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>129096</t>
+          <t>130023</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>output/images/129096.png</t>
+          <t>output/images/130023.png</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>129104</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>output/images/129104.png</t>
+          <t>130044</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>129105</t>
+          <t>130048</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>output/images/129105.png</t>
+          <t>output/images/130048.png</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>129109</t>
+          <t>130051</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>output/images/129109.png</t>
+          <t>output/images/130051.png</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>129129</t>
+          <t>130053</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>output/images/129129.png</t>
+          <t>output/images/130053.png</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>129160</t>
+          <t>130092</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>output/images/129160.png</t>
+          <t>output/images/130092.png</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>129187</t>
+          <t>130093</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>output/images/129187.png</t>
+          <t>output/images/130093.png</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>129188</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>output/images/129188.png</t>
+          <t>130095</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>129193</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>output/images/129193.png</t>
+          <t>130096</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>129200</t>
+          <t>130097</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>output/images/129200.png</t>
+          <t>output/images/130097.png</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>129204</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130099</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>output/images/130099.png</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>129211</t>
+          <t>130100</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>output/images/129211.png</t>
+          <t>output/images/130100.png</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>129215</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>output/images/129215.png</t>
+          <t>130108</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>129218</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>output/images/129218.png</t>
+          <t>130109</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>129219</t>
+          <t>130110</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -9665,223 +9115,223 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>129240</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130116</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>output/images/130116.png</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>129275</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130117</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>output/images/130117.png</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>129300</t>
+          <t>130124</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>output/images/129300.png</t>
+          <t>output/images/130124.png</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>129305</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>output/images/129305.png</t>
+          <t>130126</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>129308</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>output/images/129308.png</t>
+          <t>130127</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>129311</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130137</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>output/images/130137.png</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>129312</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130146</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>output/images/130146.png</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>129313</t>
+          <t>130147</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>output/images/129313.png</t>
+          <t>output/images/130147.png</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>129315</t>
+          <t>130148</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>output/images/129315.png</t>
+          <t>output/images/130148.png</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>129322</t>
+          <t>130149</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>output/images/129322.png</t>
+          <t>output/images/130149.png</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>129323</t>
+          <t>130155</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>output/images/129323.png</t>
+          <t>output/images/130155.png</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>129338</t>
+          <t>130163</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>output/images/129338.png</t>
+          <t>output/images/130163.png</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>129349</t>
+          <t>130164</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>output/images/129349.png</t>
+          <t>output/images/130164.png</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>129355</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130171</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>output/images/130171.png</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>129367</t>
+          <t>130177</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>output/images/129367.png</t>
+          <t>output/images/130177.png</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>129378</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>output/images/129378.png</t>
+          <t>130178</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>129379</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>output/images/129379.png</t>
+          <t>130179</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>129380</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>output/images/129380.png</t>
+          <t>130180</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>129382</t>
+          <t>130181</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -9893,43 +9343,43 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>129390</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>output/images/129390.png</t>
+          <t>130182</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>129399</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>output/images/129399.png</t>
+          <t>130183</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>129401</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>output/images/129401.png</t>
+          <t>130184</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>129402</t>
+          <t>130185</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -9941,7 +9391,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>129403</t>
+          <t>130186</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -9953,91 +9403,91 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>129404</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>output/images/129404.png</t>
+          <t>130192</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>129405</t>
+          <t>130207</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>output/images/129405.png</t>
+          <t>output/images/130207.png</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>129406</t>
+          <t>130208</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>output/images/129406.png</t>
+          <t>output/images/130208.png</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>129407</t>
+          <t>130209</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>output/images/129407.png</t>
+          <t>output/images/130209.png</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>129412</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130211</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>output/images/130211.png</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>129415</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130213</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>output/images/130213.png</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>129416</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130214</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>output/images/130214.png</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>129417</t>
+          <t>130215</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -10049,235 +9499,235 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>129418</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130216</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>output/images/130216.png</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>129419</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130239</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>output/images/130239.png</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>129420</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130240</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>output/images/130240.png</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>129421</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130241</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>output/images/130241.png</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>129422</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130243</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>output/images/130243.png</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>129423</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>output/images/129423.png</t>
+          <t>130246</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>129424</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130250</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>output/images/130250.png</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>129436</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130251</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>output/images/130251.png</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>129445</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130254</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>output/images/130254.png</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>129446</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130255</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>output/images/130255.png</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>129449</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130256</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>output/images/130256.png</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>129450</t>
+          <t>130262</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>output/images/129450.png</t>
+          <t>output/images/130262.png</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>129454</t>
+          <t>130265</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>output/images/129454.png</t>
+          <t>output/images/130265.png</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>129455</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130270</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>output/images/130270.png</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>129477</t>
+          <t>130283</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>output/images/129477.png</t>
+          <t>output/images/130283.png</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>129487</t>
+          <t>130292</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>output/images/129487.png</t>
+          <t>output/images/130292.png</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>129488</t>
+          <t>130294</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>output/images/129488.png</t>
+          <t>output/images/130294.png</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>129491</t>
+          <t>130295</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>output/images/129491.png</t>
+          <t>output/images/130295.png</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>129506</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>output/images/129506.png</t>
+          <t>130297</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>129529</t>
+          <t>130298</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -10289,139 +9739,139 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>129534</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130300</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>output/images/130300.png</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>129535</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130301</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>output/images/130301.png</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>129546</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130302</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>output/images/130302.png</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>129547</t>
+          <t>130305</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>output/images/129547.png</t>
+          <t>output/images/130305.png</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>129552</t>
+          <t>130306</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>output/images/129552.png</t>
+          <t>output/images/130306.png</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>129554</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>output/images/129554.png</t>
+          <t>130324</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>129555</t>
+          <t>130325</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>output/images/129555.png</t>
+          <t>output/images/130325.png</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>129557</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130330</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>output/images/130330.png</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>129565</t>
+          <t>130331</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>output/images/129565.png</t>
+          <t>output/images/130331.png</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>129566</t>
+          <t>130336</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>output/images/129566.png</t>
+          <t>output/images/130336.png</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>129567</t>
+          <t>130339</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>output/images/129567.png</t>
+          <t>output/images/130339.png</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>129576</t>
+          <t>130340</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -10433,7 +9883,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>129577</t>
+          <t>130341</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -10445,7 +9895,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>129586</t>
+          <t>130342</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -10457,379 +9907,379 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>129611</t>
+          <t>130354</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>output/images/129611.png</t>
+          <t>output/images/130354.png</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>129612</t>
+          <t>130373</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>output/images/129612.png</t>
+          <t>output/images/130373.png</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>129634</t>
+          <t>130395</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>output/images/129634.png</t>
+          <t>output/images/130395.png</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>129636</t>
+          <t>130396</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>output/images/129636.png</t>
+          <t>output/images/130396.png</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>129638</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>output/images/129638.png</t>
+          <t>130397</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>129639</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>output/images/129639.png</t>
+          <t>130405</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>129640</t>
+          <t>130413</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>output/images/129640.png</t>
+          <t>output/images/130413.png</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>129645</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>output/images/129645.png</t>
+          <t>130423</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>129646</t>
+          <t>130424</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>output/images/129646.png</t>
+          <t>output/images/130424.png</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>129647</t>
+          <t>130432</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>output/images/129647.png</t>
+          <t>output/images/130432.png</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>129648</t>
+          <t>130433</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>output/images/129648.png</t>
+          <t>output/images/130433.png</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>129658</t>
+          <t>130435</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>output/images/129658.png</t>
+          <t>output/images/130435.png</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>129664</t>
+          <t>130436</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>output/images/129664.png</t>
+          <t>output/images/130436.png</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>129668</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130437</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>output/images/130437.png</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>129681</t>
+          <t>130438</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>output/images/129681.png</t>
+          <t>output/images/130438.png</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>129689</t>
+          <t>130439</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>output/images/129689.png</t>
+          <t>output/images/130439.png</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>129697</t>
+          <t>130440</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>output/images/129697.png</t>
+          <t>output/images/130440.png</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>129698</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130441</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>output/images/130441.png</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>129699</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130442</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>output/images/130442.png</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>129720</t>
+          <t>130443</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>output/images/129720.png</t>
+          <t>output/images/130443.png</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>129729</t>
+          <t>130454</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>output/images/129729.png</t>
+          <t>output/images/130454.png</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>129730</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>output/images/129730.png</t>
+          <t>130462</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>129731</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130487</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>output/images/130487.png</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>129732</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130498</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>output/images/130498.png</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>129742</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130499</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>output/images/130499.png</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>129757</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130509</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>output/images/130509.png</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>129763</t>
+          <t>130510</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>output/images/129763.png</t>
+          <t>output/images/130510.png</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>129781</t>
+          <t>130511</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>output/images/129781.png</t>
+          <t>output/images/130511.png</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>129793</t>
+          <t>130518</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>output/images/129793.png</t>
+          <t>output/images/130518.png</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>129794</t>
+          <t>130521</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>output/images/129794.png</t>
+          <t>output/images/130521.png</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>129796</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130523</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>output/images/130523.png</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>129797</t>
+          <t>130524</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -10841,7 +10291,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>129803</t>
+          <t>130525</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -10853,7 +10303,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>129804</t>
+          <t>130526</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -10865,7 +10315,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>129805</t>
+          <t>130527</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -10877,7 +10327,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>129806</t>
+          <t>130536</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -10889,55 +10339,55 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>129811</t>
+          <t>130537</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>output/images/129811.png</t>
+          <t>output/images/130537.png</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>129812</t>
+          <t>130538</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>output/images/129812.png</t>
+          <t>output/images/130538.png</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>129814</t>
+          <t>130542</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>output/images/129814.png</t>
+          <t>output/images/130542.png</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>129815</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>output/images/129815.png</t>
+          <t>130543</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>129827</t>
+          <t>130553</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -10949,259 +10399,259 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>129828</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>output/images/129828.png</t>
+          <t>130554</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>129829</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>output/images/129829.png</t>
+          <t>130555</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>129830</t>
+          <t>130556</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>output/images/129830.png</t>
+          <t>output/images/130556.png</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>129831</t>
+          <t>130557</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>output/images/129831.png</t>
+          <t>output/images/130557.png</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>129832</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>output/images/129832.png</t>
+          <t>130558</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>129833</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>output/images/129833.png</t>
+          <t>130561</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>129834</t>
+          <t>130562</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>output/images/129834.png</t>
+          <t>output/images/130562.png</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>129835</t>
+          <t>130563</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>output/images/129835.png</t>
+          <t>output/images/130563.png</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>129836</t>
+          <t>130569</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>output/images/129836.png</t>
+          <t>output/images/130569.png</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>129837</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>output/images/129837.png</t>
+          <t>130570</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>129838</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>output/images/129838.png</t>
+          <t>130573</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>129839</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>output/images/129839.png</t>
+          <t>130574</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>129840</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>output/images/129840.png</t>
+          <t>130577</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>129841</t>
+          <t>130578</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>output/images/129841.png</t>
+          <t>output/images/130578.png</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>129842</t>
+          <t>130587</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>output/images/129842.png</t>
+          <t>output/images/130587.png</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>129843</t>
+          <t>130591</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>output/images/129843.png</t>
+          <t>output/images/130591.png</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>129844</t>
+          <t>130599</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>output/images/129844.png</t>
+          <t>output/images/130599.png</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>129845</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>output/images/129845.png</t>
+          <t>130600</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>129846</t>
+          <t>130607</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>output/images/129846.png</t>
+          <t>output/images/130607.png</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>129850</t>
+          <t>130610</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>output/images/129850.png</t>
+          <t>output/images/130610.png</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>129851</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130611</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>output/images/130611.png</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>129855</t>
+          <t>130612</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -11213,91 +10663,91 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>129864</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>output/images/129864.png</t>
+          <t>130621</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>129868</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>output/images/129868.png</t>
+          <t>130623</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>129870</t>
+          <t>130631</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>output/images/129870.png</t>
+          <t>output/images/130631.png</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>129871</t>
+          <t>130632</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>output/images/129871.png</t>
+          <t>output/images/130632.png</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>129872</t>
+          <t>130642</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>output/images/129872.png</t>
+          <t>output/images/130642.png</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>130643</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>output/images/129887.png</t>
+          <t>output/images/130643.png</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>129888</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130644</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>output/images/130644.png</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>129889</t>
+          <t>130669</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -11309,19 +10759,19 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>129890</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>output/images/129890.png</t>
+          <t>130693</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>129891</t>
+          <t>130702</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -11333,7 +10783,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>129892</t>
+          <t>130703</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -11345,7 +10795,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>129893</t>
+          <t>130704</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -11357,7 +10807,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>129894</t>
+          <t>130705</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -11369,7 +10819,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>129895</t>
+          <t>130706</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -11381,7 +10831,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>129896</t>
+          <t>130707</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -11393,67 +10843,67 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>129897</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>output/images/129897.png</t>
+          <t>130708</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>129898</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>output/images/129898.png</t>
+          <t>130709</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>129899</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130710</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>output/images/130710.png</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>129900</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130711</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>output/images/130711.png</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>129901</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130712</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>output/images/130712.png</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>129908</t>
+          <t>130714</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -11465,19 +10915,19 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>129909</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>output/images/129909.png</t>
+          <t>130722</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>129921</t>
+          <t>130723</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -11489,7 +10939,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>129944</t>
+          <t>130726</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -11501,151 +10951,151 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>129945</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130731</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>output/images/130731.png</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>129946</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130732</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>output/images/130732.png</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>129947</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130733</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>output/images/130733.png</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>129948</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130734</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>output/images/130734.png</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>129949</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130766</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>output/images/130766.png</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>129964</t>
+          <t>130773</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>output/images/129964.png</t>
+          <t>output/images/130773.png</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>129995</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>output/images/129995.png</t>
+          <t>130774</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>130005</t>
+          <t>130782</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>output/images/130005.png</t>
+          <t>output/images/130782.png</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>130006</t>
+          <t>130795</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>output/images/130006.png</t>
+          <t>output/images/130795.png</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>130020</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>output/images/130020.png</t>
+          <t>130820</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>130022</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>output/images/130022.png</t>
+          <t>130821</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>130024</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>output/images/130024.png</t>
+          <t>130822</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>No Image</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>130068</t>
+          <t>130823</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -11657,384 +11107,72 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>130862</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>output/images/130069.png</t>
+          <t>output/images/130862.png</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>130070</t>
+          <t>130886</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>output/images/130070.png</t>
+          <t>output/images/130886.png</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>130078</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>130907</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>output/images/130907.png</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>130079</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>89565</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>output/images/89565.png</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>130080</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>No Image</t>
+          <t>89566</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>output/images/89566.png</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>130081</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>130082</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>130084</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>130085</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>output/images/130085.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>130102</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>output/images/130102.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>130112</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>output/images/130112.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>130113</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>output/images/130113.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>130118</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>output/images/130118.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>130153</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>130154</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>130156</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>130157</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>output/images/130157.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>130159</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>output/images/130159.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>130170</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>output/images/130170.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>130172</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>output/images/130172.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>130173</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>output/images/130173.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>130174</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>130176</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>130234</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>130263</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>output/images/130263.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>130276</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>output/images/130276.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>130299</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>output/images/130299.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>130379</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>output/images/130379.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>130393</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>output/images/130393.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>130430</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>130431</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>No Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>130497</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>output/images/130497.png</t>
+          <t>119510</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>output/images/119510.png</t>
         </is>
       </c>
     </row>
